--- a/src/main/webapp/download/月固话、TD.xlsx
+++ b/src/main/webapp/download/月固话、TD.xlsx
@@ -14177,7 +14177,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M24" sqref="M24"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
